--- a/test-data/TestData_And_Validation.xlsx
+++ b/test-data/TestData_And_Validation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3DEF27A9-3BB9-43FB-8086-7584E8AEBE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8315374F-951F-450D-9BB0-A7ECAF6E2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CarLoanTestData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="121">
   <si>
     <t>Car Loan Amount</t>
   </si>
@@ -386,6 +386,21 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2613089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2850642</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +509,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -812,9 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -839,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1024,7 +1070,7 @@
       <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="72" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1044,7 +1090,7 @@
       <c r="E3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="73" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1064,7 +1110,7 @@
       <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="74" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1084,7 +1130,7 @@
       <c r="E5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="75" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1120,7 +1166,7 @@
       <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="76" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1140,7 +1186,7 @@
       <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="77" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1176,7 +1222,7 @@
       <c r="E10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="78" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1196,7 +1242,7 @@
       <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="79" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1214,9 +1260,9 @@
         <v>20000</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="80" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1294,10 +1340,10 @@
         <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>61</v>
@@ -1317,10 +1363,10 @@
         <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>68</v>
@@ -1340,10 +1386,10 @@
         <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>73</v>
@@ -1363,10 +1409,10 @@
         <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>78</v>
@@ -1386,10 +1432,10 @@
         <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>83</v>
